--- a/DataSheets/student.xlsx
+++ b/DataSheets/student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Project_REDSight_DBMS_GROUP_1\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6757ACC5-FC24-46CE-9978-720285B342F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10E1721-51AF-42E1-9645-EC2F9591E9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{8C4C7946-E407-4D1E-87B7-1A285C1B1A3A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="263">
   <si>
     <t>100a0001</t>
   </si>
@@ -819,6 +819,12 @@
   </si>
   <si>
     <t>BBCB</t>
+  </si>
+  <si>
+    <t>21/5/2020</t>
+  </si>
+  <si>
+    <t>16/10/2020</t>
   </si>
 </sst>
 </file>
@@ -902,7 +908,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1225,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F9B1EC-7CBF-430A-A3CE-5197AA0E7B2F}">
   <dimension ref="A1:K370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="C48" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1400,8 +1416,8 @@
       <c r="G5" s="3">
         <v>37260</v>
       </c>
-      <c r="H5" s="3">
-        <v>43831</v>
+      <c r="H5" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>13</v>
@@ -1435,8 +1451,8 @@
       <c r="G6" s="3">
         <v>37261</v>
       </c>
-      <c r="H6" s="3">
-        <v>43831</v>
+      <c r="H6" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>16</v>
@@ -1470,8 +1486,8 @@
       <c r="G7" s="3">
         <v>37262</v>
       </c>
-      <c r="H7" s="3">
-        <v>43831</v>
+      <c r="H7" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>19</v>
@@ -1505,8 +1521,8 @@
       <c r="G8" s="3">
         <v>37263</v>
       </c>
-      <c r="H8" s="3">
-        <v>43831</v>
+      <c r="H8" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>22</v>
@@ -1540,8 +1556,8 @@
       <c r="G9" s="3">
         <v>37264</v>
       </c>
-      <c r="H9" s="3">
-        <v>43831</v>
+      <c r="H9" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>25</v>
@@ -1575,8 +1591,8 @@
       <c r="G10" s="3">
         <v>37265</v>
       </c>
-      <c r="H10" s="3">
-        <v>43831</v>
+      <c r="H10" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>28</v>
@@ -1610,8 +1626,8 @@
       <c r="G11" s="3">
         <v>37266</v>
       </c>
-      <c r="H11" s="3">
-        <v>43831</v>
+      <c r="H11" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>31</v>
@@ -1715,8 +1731,8 @@
       <c r="G14" s="3">
         <v>37269</v>
       </c>
-      <c r="H14" s="3">
-        <v>43831</v>
+      <c r="H14" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>40</v>
@@ -1750,8 +1766,8 @@
       <c r="G15" s="3">
         <v>37270</v>
       </c>
-      <c r="H15" s="3">
-        <v>43831</v>
+      <c r="H15" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>43</v>
@@ -1785,8 +1801,8 @@
       <c r="G16" s="3">
         <v>37271</v>
       </c>
-      <c r="H16" s="3">
-        <v>43831</v>
+      <c r="H16" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>46</v>
@@ -1890,8 +1906,8 @@
       <c r="G19" s="3">
         <v>37274</v>
       </c>
-      <c r="H19" s="3">
-        <v>43831</v>
+      <c r="H19" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>55</v>
@@ -1925,8 +1941,8 @@
       <c r="G20" s="3">
         <v>37275</v>
       </c>
-      <c r="H20" s="3">
-        <v>43831</v>
+      <c r="H20" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>58</v>
@@ -1960,8 +1976,8 @@
       <c r="G21" s="3">
         <v>37276</v>
       </c>
-      <c r="H21" s="3">
-        <v>43831</v>
+      <c r="H21" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>61</v>
@@ -1995,8 +2011,8 @@
       <c r="G22" s="3">
         <v>37277</v>
       </c>
-      <c r="H22" s="3">
-        <v>43831</v>
+      <c r="H22" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>64</v>
@@ -2065,8 +2081,8 @@
       <c r="G24" s="3">
         <v>37279</v>
       </c>
-      <c r="H24" s="3">
-        <v>43831</v>
+      <c r="H24" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>70</v>
@@ -2100,8 +2116,8 @@
       <c r="G25" s="3">
         <v>37280</v>
       </c>
-      <c r="H25" s="3">
-        <v>43831</v>
+      <c r="H25" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>73</v>
@@ -2240,8 +2256,8 @@
       <c r="G29" s="3">
         <v>37284</v>
       </c>
-      <c r="H29" s="3">
-        <v>43831</v>
+      <c r="H29" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>85</v>
@@ -2275,8 +2291,8 @@
       <c r="G30" s="3">
         <v>37285</v>
       </c>
-      <c r="H30" s="3">
-        <v>43831</v>
+      <c r="H30" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>88</v>
@@ -2310,8 +2326,8 @@
       <c r="G31" s="3">
         <v>37286</v>
       </c>
-      <c r="H31" s="3">
-        <v>43831</v>
+      <c r="H31" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>91</v>
@@ -2345,8 +2361,8 @@
       <c r="G32" s="3">
         <v>37287</v>
       </c>
-      <c r="H32" s="3">
-        <v>43831</v>
+      <c r="H32" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>94</v>
@@ -2450,8 +2466,8 @@
       <c r="G35" s="3">
         <v>37290</v>
       </c>
-      <c r="H35" s="3">
-        <v>43831</v>
+      <c r="H35" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>103</v>
@@ -2485,8 +2501,8 @@
       <c r="G36" s="3">
         <v>37291</v>
       </c>
-      <c r="H36" s="3">
-        <v>43831</v>
+      <c r="H36" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>106</v>
@@ -2520,8 +2536,8 @@
       <c r="G37" s="3">
         <v>37292</v>
       </c>
-      <c r="H37" s="3">
-        <v>43831</v>
+      <c r="H37" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>109</v>
@@ -2590,8 +2606,8 @@
       <c r="G39" s="3">
         <v>37294</v>
       </c>
-      <c r="H39" s="3">
-        <v>43831</v>
+      <c r="H39" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>115</v>
@@ -2625,8 +2641,8 @@
       <c r="G40" s="3">
         <v>37295</v>
       </c>
-      <c r="H40" s="3">
-        <v>43831</v>
+      <c r="H40" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>118</v>
@@ -2695,8 +2711,8 @@
       <c r="G42" s="3">
         <v>37297</v>
       </c>
-      <c r="H42" s="3">
-        <v>43831</v>
+      <c r="H42" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>124</v>
@@ -2730,8 +2746,8 @@
       <c r="G43" s="3">
         <v>37298</v>
       </c>
-      <c r="H43" s="3">
-        <v>43831</v>
+      <c r="H43" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>127</v>
@@ -2765,8 +2781,8 @@
       <c r="G44" s="3">
         <v>37299</v>
       </c>
-      <c r="H44" s="3">
-        <v>43831</v>
+      <c r="H44" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>130</v>
@@ -2835,8 +2851,8 @@
       <c r="G46" s="3">
         <v>37301</v>
       </c>
-      <c r="H46" s="3">
-        <v>43831</v>
+      <c r="H46" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>136</v>
@@ -2870,8 +2886,8 @@
       <c r="G47" s="3">
         <v>37302</v>
       </c>
-      <c r="H47" s="3">
-        <v>43831</v>
+      <c r="H47" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>139</v>
@@ -2905,8 +2921,8 @@
       <c r="G48" s="3">
         <v>37303</v>
       </c>
-      <c r="H48" s="3">
-        <v>43831</v>
+      <c r="H48" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>142</v>
@@ -2940,8 +2956,8 @@
       <c r="G49" s="3">
         <v>37304</v>
       </c>
-      <c r="H49" s="3">
-        <v>43831</v>
+      <c r="H49" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>145</v>
@@ -2975,8 +2991,8 @@
       <c r="G50" s="3">
         <v>37306</v>
       </c>
-      <c r="H50" s="3">
-        <v>43831</v>
+      <c r="H50" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>150</v>
@@ -2989,7 +3005,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="A51" s="1">
         <v>2022049</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -3010,8 +3026,8 @@
       <c r="G51" s="7">
         <v>36526</v>
       </c>
-      <c r="H51" s="7">
-        <v>43983</v>
+      <c r="H51" s="3">
+        <v>43831</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>147</v>
@@ -3024,7 +3040,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+      <c r="A52" s="1">
         <v>2020977</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -3045,8 +3061,8 @@
       <c r="G52" s="7">
         <v>36527</v>
       </c>
-      <c r="H52" s="7">
-        <v>43983</v>
+      <c r="H52" s="3">
+        <v>43831</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>154</v>
@@ -3059,7 +3075,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+      <c r="A53" s="1">
         <v>2020975</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -3080,8 +3096,8 @@
       <c r="G53" s="7">
         <v>36528</v>
       </c>
-      <c r="H53" s="7">
-        <v>43983</v>
+      <c r="H53" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>156</v>
@@ -3094,7 +3110,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
+      <c r="A54" s="1">
         <v>2020600</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -3115,8 +3131,8 @@
       <c r="G54" s="7">
         <v>36529</v>
       </c>
-      <c r="H54" s="7">
-        <v>43983</v>
+      <c r="H54" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>158</v>
@@ -3129,7 +3145,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+      <c r="A55" s="1">
         <v>2022523</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -3150,8 +3166,8 @@
       <c r="G55" s="7">
         <v>36530</v>
       </c>
-      <c r="H55" s="7">
-        <v>43983</v>
+      <c r="H55" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>160</v>
@@ -3164,7 +3180,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
+      <c r="A56" s="1">
         <v>2030069</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -3185,8 +3201,8 @@
       <c r="G56" s="7">
         <v>36531</v>
       </c>
-      <c r="H56" s="7">
-        <v>43983</v>
+      <c r="H56" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>162</v>
@@ -4221,7 +4237,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{91F8E9B1-3453-4CD0-BD58-74DA73892CF8}"/>
